--- a/data/trans_bre/P15A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,72%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,61; 2,52</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 4,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 3,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-76,48; 137,2</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,74; 356,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,49; 244,99</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 1,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 0,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,6; 278,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,08; 103,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,95; 167,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,2; 314,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,05%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; -1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,35; -31,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,23; 109,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,79; 25,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,33; 256,61</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,72%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 0,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 3,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 2,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,87; 22,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,85; 7,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,28; 127,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,87; 998,76</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,16%</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 3,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 4,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 1,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 0,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,59; 261,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,12; 256,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 220,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,01%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 4,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 7,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 4,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,56; 239,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; 665,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; 204,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 177,17</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 1,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 0,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,01; 18,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,01; 42,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,57; 134,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,1; 156,48</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,4%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 1,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 1,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 1,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,24; 66,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,87; 290,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,78; 53,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,59; 106,24</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; -4,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,15; 26,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 30,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 66,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>68,16%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 1,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,95</t>
+          <t>-0,64; 3,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,38; 57,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 244,99</t>
+          <t>-19,96; 276,72</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>37,49%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,06</t>
+          <t>-1,38; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 314,44</t>
+          <t>-39,11; 308,02</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>42,03%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,73</t>
+          <t>-1,14; 2,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 256,61</t>
+          <t>-44,43; 239,69</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,92%</t>
+          <t>-51,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-38,53%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 0,05</t>
+          <t>-4,84; 0,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,28</t>
+          <t>-4,71; 1,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,85; 7,18</t>
+          <t>-85,22; 19,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,87; 998,76</t>
+          <t>-92,37; 533,47</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-77,16%</t>
+          <t>-78,94%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,13</t>
+          <t>-3,38; 0,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>46,5%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,54</t>
+          <t>-1,09; 4,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 177,17</t>
+          <t>-27,36; 181,07</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,25</t>
+          <t>-1,56; 1,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 156,48</t>
+          <t>-51,9; 141,69</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,22</t>
+          <t>-1,34; 1,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 106,24</t>
+          <t>-51,7; 207,21</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,2</t>
+          <t>-0,42; 1,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 66,2</t>
+          <t>-17,1; 71,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,52</t>
+          <t>-3,6; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,26</t>
+          <t>-5,0; 1,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,03</t>
+          <t>-1,37; 3,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,84</t>
+          <t>-0,6; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 137,2</t>
+          <t>-77,55; 138,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 57,26</t>
+          <t>-82,81; 61,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,74; 356,65</t>
+          <t>-52,93; 470,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 276,72</t>
+          <t>-18,38; 285,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,9</t>
+          <t>-1,6; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,01</t>
+          <t>-2,53; 0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,8</t>
+          <t>-1,85; 0,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,96</t>
+          <t>-1,89; 2,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,6; 278,01</t>
+          <t>-68,14; 207,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 103,96</t>
+          <t>-77,6; 84,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,95; 167,16</t>
+          <t>-86,72; 203,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 308,02</t>
+          <t>-48,41; 219,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -1,84</t>
+          <t>-7,91; -2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,37</t>
+          <t>-2,88; 3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,13</t>
+          <t>-4,94; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,62</t>
+          <t>-1,39; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-94,35; -31,25</t>
+          <t>-94,11; -29,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 109,19</t>
+          <t>-47,66; 126,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-85,79; 25,37</t>
+          <t>-86,97; 17,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 239,69</t>
+          <t>-50,74; 275,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,72</t>
+          <t>-5,02; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,26</t>
+          <t>-4,75; 0,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,68</t>
+          <t>-3,15; 3,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,75</t>
+          <t>-4,81; 1,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 22,04</t>
+          <t>-75,58; 16,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,22; 19,93</t>
+          <t>-83,94; 47,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 127,56</t>
+          <t>-52,54; 115,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-92,37; 533,47</t>
+          <t>-94,18; 293,04</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,99</t>
+          <t>-3,41; 4,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,42</t>
+          <t>-2,84; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,57</t>
+          <t>-3,96; 1,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,07</t>
+          <t>-3,18; 0,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 261,26</t>
+          <t>-69,52; 219,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 256,88</t>
+          <t>-60,69; 246,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 220,45</t>
+          <t>-90,2; 186,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,1</t>
+          <t>-2,95; 3,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,56</t>
+          <t>0,24; 7,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,93</t>
+          <t>-1,03; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,59</t>
+          <t>-1,12; 4,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 239,95</t>
+          <t>-62,1; 220,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 665,09</t>
+          <t>-19,71; 598,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 204,6</t>
+          <t>-17,88; 202,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 181,07</t>
+          <t>-26,69; 182,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,5</t>
+          <t>-3,91; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,04</t>
+          <t>-2,59; 1,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,67</t>
+          <t>-1,73; 0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,93</t>
+          <t>-1,73; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 18,69</t>
+          <t>-67,58; 13,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 42,23</t>
+          <t>-55,72; 54,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-86,57; 134,09</t>
+          <t>-88,79; 161,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 141,69</t>
+          <t>-56,4; 130,83</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,78</t>
+          <t>-1,96; 1,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,88</t>
+          <t>-0,57; 1,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,87</t>
+          <t>-2,1; 0,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,78</t>
+          <t>-1,34; 1,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 66,95</t>
+          <t>-42,36; 74,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,87; 290,39</t>
+          <t>-39,56; 319,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 53,13</t>
+          <t>-64,54; 53,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 207,21</t>
+          <t>-50,94; 216,06</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,18</t>
+          <t>-1,88; -0,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,65</t>
+          <t>-0,93; 0,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,66</t>
+          <t>-0,92; 0,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,21</t>
+          <t>-0,47; 1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -4,37</t>
+          <t>-44,11; -4,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 26,38</t>
+          <t>-28,67; 30,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 30,67</t>
+          <t>-30,78; 29,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 71,91</t>
+          <t>-17,97; 72,31</t>
         </is>
       </c>
     </row>
